--- a/server/db/learnEnglishOnline.xlsx
+++ b/server/db/learnEnglishOnline.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="930" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="1"/>
+    <workbookView xWindow="1860" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="user" sheetId="1" r:id="rId1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="113" uniqueCount="95">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="133" uniqueCount="100">
   <si>
     <t>username</t>
   </si>
@@ -45,21 +45,12 @@
     <t>description</t>
   </si>
   <si>
-    <t>image_link</t>
-  </si>
-  <si>
     <t>level_id</t>
   </si>
   <si>
-    <t>question</t>
-  </si>
-  <si>
     <t>type</t>
   </si>
   <si>
-    <t>right_answer</t>
-  </si>
-  <si>
     <t>lession_id</t>
   </si>
   <si>
@@ -120,180 +111,63 @@
     <t>Cơ bản 9</t>
   </si>
   <si>
-    <t>../../assets/image/lession1.png</t>
-  </si>
-  <si>
-    <t>../../assets/image/lession2.png</t>
-  </si>
-  <si>
-    <t>../../assets/image/lession3.png</t>
-  </si>
-  <si>
     <t>answers</t>
   </si>
   <si>
-    <t>Chọn từ cho “cô gái”</t>
-  </si>
-  <si>
-    <t>"../../assets/image/boy.png", "../../assets/image/girl.png", "../../assets/image/man.png"</t>
-  </si>
-  <si>
-    <t>Chọn từ cho “đàn ông”</t>
-  </si>
-  <si>
-    <t>"../../assets/image/boy.png", "../../assets/image/woman.png", "../../assets/image/man.png"</t>
-  </si>
-  <si>
-    <t>"../../assets/sound/boy.mp3"</t>
-  </si>
-  <si>
-    <t>Ghi “sách” bằng Tiếng Anh</t>
-  </si>
-  <si>
     <t>book</t>
   </si>
   <si>
-    <t>../../assets/image/book.png</t>
-  </si>
-  <si>
     <t>tôi ăn bánh mì</t>
   </si>
   <si>
-    <t>Viết mục này bằng Tiếng Việt: "I eat bread"</t>
-  </si>
-  <si>
-    <t>Viết mục này bằng Tiếng Anh: "Anh ấy ăn một quả táo"</t>
-  </si>
-  <si>
     <t>he eats an apple</t>
   </si>
   <si>
     <t>the man and the woman</t>
   </si>
   <si>
-    <t>Viết mục này bằng Tiếng Anh: "Người đàn ông và người phụ nữ"</t>
-  </si>
-  <si>
-    <t>Chọn từ còn thiếu: She ___  water</t>
-  </si>
-  <si>
-    <t>"drink","drinking","drinks"</t>
-  </si>
-  <si>
     <t>boy</t>
   </si>
   <si>
-    <t>Chọn từ còn thiếu: They ___ my childrent</t>
-  </si>
-  <si>
-    <t>"is","am","are"</t>
-  </si>
-  <si>
-    <t>"../../assets/sound/the_children.mp3"</t>
-  </si>
-  <si>
     <t>the children</t>
   </si>
   <si>
     <t>Nghe và nghi lại</t>
   </si>
   <si>
-    <t>"../../assets/sound/It_is_an_apple.mp3"</t>
-  </si>
-  <si>
     <t>it is an apple</t>
   </si>
   <si>
-    <t>Chọn từ còn thiếu: They ___  football</t>
-  </si>
-  <si>
-    <t>"play","plays","playing"</t>
-  </si>
-  <si>
-    <t>Chọn từ còn thiếu: She ___  bread.</t>
-  </si>
-  <si>
-    <t>"eats","eat","eating"</t>
-  </si>
-  <si>
-    <t>Chọn từ cho “giáo viên”</t>
-  </si>
-  <si>
-    <t>"../../assets/image/teacher.png","../../assets/image/boy.png", "../../assets/image/girl.png"</t>
-  </si>
-  <si>
-    <t>Chọn từ còn thiếu: I am ___ my homework.</t>
-  </si>
-  <si>
-    <t>"do","doing","did"</t>
-  </si>
-  <si>
-    <t>Viết mục này bằng Tiếng Anh: "Những chiếc áo của tôi"</t>
-  </si>
-  <si>
     <t>my shirts</t>
   </si>
   <si>
-    <t>../../assets/image/coat.png</t>
-  </si>
-  <si>
-    <t>Ghi “áo khoác” bằng Tiếng Anh</t>
-  </si>
-  <si>
-    <t>Viết mục này bằng Tiếng Việt: "I have a green turtle"</t>
-  </si>
-  <si>
     <t>tôi có một con rùa màu xanh lá</t>
   </si>
   <si>
-    <t>Viết mục này bằng Tiếng Anh: "Một quả cam và một quả táo"</t>
-  </si>
-  <si>
     <t>an apple and an orange</t>
   </si>
   <si>
     <t>what color is your cat</t>
   </si>
   <si>
-    <t>"../../assets/sound/what_color_is_your_cat.mp3"</t>
-  </si>
-  <si>
-    <t>Viết mục này bằng Tiếng Việt: "Where are you"</t>
-  </si>
-  <si>
     <t>bạn ở đâu</t>
   </si>
   <si>
     <t>how are the boys</t>
   </si>
   <si>
-    <t>"../../assets/sound/how_are_the_boys.mp3"</t>
-  </si>
-  <si>
-    <t>Viết mục này bằng Tiếng Việt: "Whose book is it"</t>
-  </si>
-  <si>
     <t>quyển sách của ai</t>
   </si>
   <si>
     <t>I listen to you</t>
   </si>
   <si>
-    <t>"../../assets/sound/i_listen_to_you.mp3"</t>
-  </si>
-  <si>
-    <t>"../../assets/sound/she_eats_while_i_drink.mp3"</t>
-  </si>
-  <si>
     <t>she eats while I drink</t>
   </si>
   <si>
     <t>the boys play whenever it rains</t>
   </si>
   <si>
-    <t>Viết mục này bằng Tiếng Anh: "Nếu anh ấy uống, tôi ăn"</t>
-  </si>
-  <si>
     <t>if he drinks, I eat</t>
   </si>
   <si>
@@ -307,6 +181,147 @@
   </si>
   <si>
     <t>Kết hợp kỹ năng</t>
+  </si>
+  <si>
+    <t>url(../../assets/image/lession1.png)</t>
+  </si>
+  <si>
+    <t>url(../../assets/image/lession2.png)</t>
+  </si>
+  <si>
+    <t>url(../../assets/image/lession3.png)</t>
+  </si>
+  <si>
+    <t>Viết mục này bằng Tiếng Việt:</t>
+  </si>
+  <si>
+    <t>Chọn từ cho:</t>
+  </si>
+  <si>
+    <t>Ghi lại bằng Tiếng Anh:</t>
+  </si>
+  <si>
+    <t>Chọn từ còn thiếu:</t>
+  </si>
+  <si>
+    <t>Viết mục này bằng Tiếng Anh:</t>
+  </si>
+  <si>
+    <t>She ___  bread.</t>
+  </si>
+  <si>
+    <t>I eat bread.</t>
+  </si>
+  <si>
+    <t>She ___  water.</t>
+  </si>
+  <si>
+    <t>They ___ my childrent.</t>
+  </si>
+  <si>
+    <t>They ___  football.</t>
+  </si>
+  <si>
+    <t>I am ___ my homework.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Viết mục này bằng Tiếng Việt: </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Viết mục này bằng Tiếng Anh: </t>
+  </si>
+  <si>
+    <t>cô gái.</t>
+  </si>
+  <si>
+    <t>sách.</t>
+  </si>
+  <si>
+    <t>Anh ấy ăn một quả táo.</t>
+  </si>
+  <si>
+    <t>Người đàn ông và người phụ nữ.</t>
+  </si>
+  <si>
+    <t>giáo viên.</t>
+  </si>
+  <si>
+    <t>Những chiếc áo của tôi.</t>
+  </si>
+  <si>
+    <t>áo khoác.</t>
+  </si>
+  <si>
+    <t>I have a green turtle.</t>
+  </si>
+  <si>
+    <t>Một quả cam và một quả táo.</t>
+  </si>
+  <si>
+    <t>Where are you.</t>
+  </si>
+  <si>
+    <t>Whose book is it</t>
+  </si>
+  <si>
+    <t>Nếu anh ấy uống, tôi ăn.</t>
+  </si>
+  <si>
+    <t>rightAnswer</t>
+  </si>
+  <si>
+    <t>imageLink</t>
+  </si>
+  <si>
+    <t>{"fileLink": "../../assets/sound/boy.mp3"}</t>
+  </si>
+  <si>
+    <t>{"chooses": ["drink","drinking","drinks"]}</t>
+  </si>
+  <si>
+    <t>{"chooses": ["is","am","are"]}</t>
+  </si>
+  <si>
+    <t>{"fileLink": "../../assets/sound/the_children.mp3"}</t>
+  </si>
+  <si>
+    <t>{"chooses": ["play","playing","plays"]}</t>
+  </si>
+  <si>
+    <t>{"chooses": ["eats","eat","eating"]}</t>
+  </si>
+  <si>
+    <t>{"fileLink": "../../assets/sound/It_is_an_apple.mp3"}</t>
+  </si>
+  <si>
+    <t>{"chooses": ["do","doing","did"]}</t>
+  </si>
+  <si>
+    <t>{"imageLink":"url(../../assets/image/coat.png)","description":"áo khoác"}</t>
+  </si>
+  <si>
+    <t>{"imageLink":"url(../../assets/image/book.png)","description":"quyển sách"}</t>
+  </si>
+  <si>
+    <t>{"fileLink": "../../assets/sound/what_color_is_your_cat.mp3"}</t>
+  </si>
+  <si>
+    <t>{"fileLink": "../../assets/sound/how_are_the_boys.mp3"}</t>
+  </si>
+  <si>
+    <t>{"fileLink": "../../assets/sound/i_listen_to_you.mp3"}</t>
+  </si>
+  <si>
+    <t>{"fileLink": "../../assets/sound/she_eats_while_i_drink.mp3"}</t>
+  </si>
+  <si>
+    <t>[{"imageLink":"url(../../assets/image/boy.png)","description":"boy"},{"imageLink":"url(../../assets/image/girl.png)","description":"girl"},{"imageLink":"url(../../assets/image/man.png)","description":"man"}]</t>
+  </si>
+  <si>
+    <t>[{"imageLink":"url(../../assets/image/boy.png)","description":"boy"},{"imageLink":"url(../../assets/image/woman.png)","description":"woman"},{"imageLink":"url(../../assets/image/man.png)","description":"man"}]</t>
+  </si>
+  <si>
+    <t>[{"imageLink":"url(../../assets/image/teacher.png)","description":"teacher"},{"imageLink":"url(../../assets/image/boy.png)","description":"boy"},{"imageLink":"url(../../assets/image/girl.png)","description":"girl"}]</t>
   </si>
 </sst>
 </file>
@@ -639,7 +654,7 @@
   <dimension ref="A1:E4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F4" sqref="F4"/>
+      <selection activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -671,16 +686,16 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="C2">
         <v>123456</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="E2" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
@@ -688,13 +703,13 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="C3">
         <v>123456</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
@@ -702,13 +717,13 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="C4">
         <v>123456</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
     </row>
   </sheetData>
@@ -725,8 +740,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -750,10 +765,10 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="C2" t="s">
-        <v>92</v>
+        <v>50</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
@@ -761,10 +776,10 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="C3" t="s">
-        <v>93</v>
+        <v>51</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
@@ -772,10 +787,10 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="C4" t="s">
-        <v>94</v>
+        <v>52</v>
       </c>
     </row>
   </sheetData>
@@ -788,7 +803,7 @@
   <dimension ref="A1:D10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C15" sqref="C15"/>
+      <selection activeCell="C1" sqref="C1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -805,10 +820,10 @@
         <v>5</v>
       </c>
       <c r="C1" t="s">
+        <v>82</v>
+      </c>
+      <c r="D1" t="s">
         <v>7</v>
-      </c>
-      <c r="D1" t="s">
-        <v>8</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
@@ -816,10 +831,10 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="C2" t="s">
-        <v>32</v>
+        <v>53</v>
       </c>
       <c r="D2">
         <v>1</v>
@@ -830,10 +845,10 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="C3" t="s">
-        <v>33</v>
+        <v>54</v>
       </c>
       <c r="D3">
         <v>1</v>
@@ -844,10 +859,10 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="C4" t="s">
-        <v>34</v>
+        <v>55</v>
       </c>
       <c r="D4">
         <v>1</v>
@@ -858,10 +873,10 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="C5" t="s">
-        <v>32</v>
+        <v>53</v>
       </c>
       <c r="D5">
         <v>2</v>
@@ -872,10 +887,10 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="C6" t="s">
-        <v>33</v>
+        <v>54</v>
       </c>
       <c r="D6">
         <v>2</v>
@@ -886,10 +901,10 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="C7" t="s">
-        <v>34</v>
+        <v>55</v>
       </c>
       <c r="D7">
         <v>2</v>
@@ -900,10 +915,10 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="C8" t="s">
-        <v>32</v>
+        <v>53</v>
       </c>
       <c r="D8">
         <v>3</v>
@@ -914,10 +929,10 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="C9" t="s">
-        <v>33</v>
+        <v>54</v>
       </c>
       <c r="D9">
         <v>3</v>
@@ -928,10 +943,10 @@
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="C10" t="s">
-        <v>34</v>
+        <v>55</v>
       </c>
       <c r="D10">
         <v>3</v>
@@ -944,550 +959,613 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F28"/>
+  <dimension ref="A1:G28"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="B20" sqref="B20"/>
+    <sheetView tabSelected="1" topLeftCell="F1" zoomScale="96" zoomScaleNormal="96" workbookViewId="0">
+      <selection activeCell="F11" sqref="F11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="57.7109375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="15.42578125" customWidth="1"/>
-    <col min="4" max="4" width="22.85546875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="94.140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="3" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="5.85546875" customWidth="1"/>
+    <col min="3" max="3" width="7.140625" customWidth="1"/>
+    <col min="4" max="4" width="5" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.7109375" customWidth="1"/>
+    <col min="6" max="6" width="186.5703125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="10" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>1</v>
       </c>
       <c r="B1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E1" t="s">
+        <v>81</v>
+      </c>
+      <c r="F1" t="s">
+        <v>29</v>
+      </c>
+      <c r="G1" t="s">
         <v>9</v>
       </c>
-      <c r="C1" t="s">
-        <v>10</v>
-      </c>
-      <c r="D1" t="s">
-        <v>11</v>
-      </c>
-      <c r="E1" t="s">
-        <v>35</v>
-      </c>
-      <c r="F1" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>36</v>
-      </c>
-      <c r="C2">
+        <v>69</v>
+      </c>
+      <c r="C2" t="s">
+        <v>57</v>
+      </c>
+      <c r="D2">
         <v>3</v>
       </c>
-      <c r="D2">
-        <v>1</v>
-      </c>
-      <c r="E2" t="s">
-        <v>37</v>
-      </c>
-      <c r="F2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E2">
+        <v>1</v>
+      </c>
+      <c r="F2" t="s">
+        <v>97</v>
+      </c>
+      <c r="G2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>38</v>
-      </c>
-      <c r="C3">
+        <v>69</v>
+      </c>
+      <c r="C3" t="s">
+        <v>57</v>
+      </c>
+      <c r="D3">
         <v>3</v>
       </c>
-      <c r="D3">
-        <v>2</v>
-      </c>
-      <c r="E3" t="s">
-        <v>39</v>
-      </c>
-      <c r="F3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E3">
+        <v>2</v>
+      </c>
+      <c r="F3" t="s">
+        <v>98</v>
+      </c>
+      <c r="G3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>3</v>
       </c>
-      <c r="B4" t="s">
-        <v>57</v>
-      </c>
-      <c r="C4">
-        <v>1</v>
-      </c>
-      <c r="D4" t="s">
-        <v>52</v>
+      <c r="C4" t="s">
+        <v>36</v>
+      </c>
+      <c r="D4">
+        <v>4</v>
       </c>
       <c r="E4" t="s">
-        <v>40</v>
-      </c>
-      <c r="F4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+        <v>34</v>
+      </c>
+      <c r="F4" t="s">
+        <v>83</v>
+      </c>
+      <c r="G4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>41</v>
-      </c>
-      <c r="C5">
-        <v>0</v>
-      </c>
-      <c r="D5" t="s">
-        <v>42</v>
+        <v>70</v>
+      </c>
+      <c r="C5" t="s">
+        <v>58</v>
+      </c>
+      <c r="D5">
+        <v>1</v>
       </c>
       <c r="E5" t="s">
-        <v>43</v>
-      </c>
-      <c r="F5">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+        <v>30</v>
+      </c>
+      <c r="F5" t="s">
+        <v>92</v>
+      </c>
+      <c r="G5">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>45</v>
-      </c>
-      <c r="C6">
-        <v>0</v>
-      </c>
-      <c r="D6" t="s">
-        <v>44</v>
-      </c>
-      <c r="F6">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+        <v>62</v>
+      </c>
+      <c r="C6" t="s">
+        <v>56</v>
+      </c>
+      <c r="D6">
+        <v>1</v>
+      </c>
+      <c r="E6" t="s">
+        <v>31</v>
+      </c>
+      <c r="G6">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>50</v>
-      </c>
-      <c r="C7">
-        <v>2</v>
+        <v>63</v>
+      </c>
+      <c r="C7" t="s">
+        <v>59</v>
       </c>
       <c r="D7">
         <v>2</v>
       </c>
-      <c r="E7" t="s">
-        <v>51</v>
-      </c>
-      <c r="F7">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E7">
+        <v>2</v>
+      </c>
+      <c r="F7" t="s">
+        <v>84</v>
+      </c>
+      <c r="G7">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>46</v>
-      </c>
-      <c r="C8">
-        <v>0</v>
-      </c>
-      <c r="D8" t="s">
-        <v>47</v>
-      </c>
-      <c r="F8">
+        <v>71</v>
+      </c>
+      <c r="C8" t="s">
+        <v>60</v>
+      </c>
+      <c r="D8">
+        <v>1</v>
+      </c>
+      <c r="E8" t="s">
+        <v>32</v>
+      </c>
+      <c r="G8">
         <v>3</v>
       </c>
     </row>
-    <row r="9" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>53</v>
-      </c>
-      <c r="C9">
-        <v>2</v>
+        <v>64</v>
+      </c>
+      <c r="C9" t="s">
+        <v>59</v>
       </c>
       <c r="D9">
         <v>2</v>
       </c>
-      <c r="E9" t="s">
-        <v>54</v>
-      </c>
-      <c r="F9">
+      <c r="E9">
+        <v>2</v>
+      </c>
+      <c r="F9" t="s">
+        <v>85</v>
+      </c>
+      <c r="G9">
         <v>3</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>9</v>
       </c>
-      <c r="B10" t="s">
-        <v>57</v>
-      </c>
-      <c r="C10">
-        <v>1</v>
-      </c>
-      <c r="D10" t="s">
-        <v>56</v>
+      <c r="C10" t="s">
+        <v>36</v>
+      </c>
+      <c r="D10">
+        <v>4</v>
       </c>
       <c r="E10" t="s">
-        <v>55</v>
-      </c>
-      <c r="F10">
+        <v>35</v>
+      </c>
+      <c r="F10" t="s">
+        <v>86</v>
+      </c>
+      <c r="G10">
         <v>3</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>10</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="C11">
-        <v>0</v>
-      </c>
-      <c r="D11" t="s">
-        <v>48</v>
-      </c>
-      <c r="F11">
+        <v>72</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="D11">
+        <v>1</v>
+      </c>
+      <c r="E11" t="s">
+        <v>33</v>
+      </c>
+      <c r="G11">
         <v>4</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>60</v>
-      </c>
-      <c r="C12">
-        <v>2</v>
+        <v>65</v>
+      </c>
+      <c r="C12" t="s">
+        <v>59</v>
       </c>
       <c r="D12">
+        <v>2</v>
+      </c>
+      <c r="E12">
         <v>0</v>
       </c>
-      <c r="E12" t="s">
-        <v>61</v>
-      </c>
-      <c r="F12">
+      <c r="F12" t="s">
+        <v>87</v>
+      </c>
+      <c r="G12">
         <v>4</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>12</v>
       </c>
       <c r="B13" t="s">
-        <v>62</v>
-      </c>
-      <c r="C13">
-        <v>2</v>
+        <v>61</v>
+      </c>
+      <c r="C13" t="s">
+        <v>59</v>
       </c>
       <c r="D13">
+        <v>2</v>
+      </c>
+      <c r="E13">
         <v>0</v>
       </c>
-      <c r="E13" t="s">
-        <v>63</v>
-      </c>
-      <c r="F13">
+      <c r="F13" t="s">
+        <v>88</v>
+      </c>
+      <c r="G13">
         <v>4</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>13</v>
       </c>
-      <c r="B14" t="s">
-        <v>57</v>
-      </c>
-      <c r="C14">
-        <v>1</v>
-      </c>
-      <c r="D14" t="s">
-        <v>59</v>
+      <c r="C14" t="s">
+        <v>36</v>
+      </c>
+      <c r="D14">
+        <v>4</v>
       </c>
       <c r="E14" t="s">
-        <v>58</v>
-      </c>
-      <c r="F14">
+        <v>37</v>
+      </c>
+      <c r="F14" t="s">
+        <v>89</v>
+      </c>
+      <c r="G14">
         <v>5</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>14</v>
       </c>
       <c r="B15" t="s">
-        <v>64</v>
-      </c>
-      <c r="C15">
+        <v>73</v>
+      </c>
+      <c r="C15" t="s">
+        <v>57</v>
+      </c>
+      <c r="D15">
         <v>3</v>
       </c>
-      <c r="D15">
+      <c r="E15">
         <v>0</v>
       </c>
-      <c r="E15" t="s">
-        <v>65</v>
-      </c>
-      <c r="F15">
+      <c r="F15" t="s">
+        <v>99</v>
+      </c>
+      <c r="G15">
         <v>5</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>15</v>
       </c>
       <c r="B16" t="s">
         <v>66</v>
       </c>
-      <c r="C16">
-        <v>1</v>
+      <c r="C16" t="s">
+        <v>59</v>
       </c>
       <c r="D16">
+        <v>4</v>
+      </c>
+      <c r="E16">
         <v>0</v>
       </c>
-      <c r="E16" t="s">
-        <v>67</v>
-      </c>
-      <c r="F16">
+      <c r="F16" t="s">
+        <v>90</v>
+      </c>
+      <c r="G16">
         <v>5</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>16</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>68</v>
-      </c>
-      <c r="C17">
-        <v>0</v>
-      </c>
-      <c r="D17" t="s">
-        <v>69</v>
-      </c>
-      <c r="F17">
+        <v>74</v>
+      </c>
+      <c r="C17" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="D17">
+        <v>1</v>
+      </c>
+      <c r="E17" t="s">
+        <v>38</v>
+      </c>
+      <c r="G17">
         <v>6</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>17</v>
       </c>
-      <c r="B18" t="s">
-        <v>71</v>
-      </c>
-      <c r="C18">
-        <v>0</v>
-      </c>
-      <c r="D18" t="s">
+      <c r="B18" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="C18" t="s">
+        <v>58</v>
+      </c>
+      <c r="D18">
+        <v>1</v>
+      </c>
+      <c r="E18" t="s">
+        <v>49</v>
+      </c>
+      <c r="F18" t="s">
         <v>91</v>
       </c>
-      <c r="E18" t="s">
-        <v>70</v>
-      </c>
-      <c r="F18">
+      <c r="G18">
         <v>6</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>18</v>
       </c>
-      <c r="B19" t="s">
-        <v>72</v>
-      </c>
-      <c r="C19">
-        <v>0</v>
-      </c>
-      <c r="D19" t="s">
-        <v>73</v>
-      </c>
-      <c r="F19">
+      <c r="B19" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="C19" t="s">
+        <v>56</v>
+      </c>
+      <c r="D19">
+        <v>1</v>
+      </c>
+      <c r="E19" t="s">
+        <v>39</v>
+      </c>
+      <c r="G19">
         <v>6</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>19</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>74</v>
-      </c>
-      <c r="C20">
-        <v>0</v>
-      </c>
-      <c r="D20" t="s">
-        <v>75</v>
-      </c>
-      <c r="F20">
+        <v>77</v>
+      </c>
+      <c r="C20" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="D20">
+        <v>1</v>
+      </c>
+      <c r="E20" t="s">
+        <v>40</v>
+      </c>
+      <c r="G20">
         <v>7</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>20</v>
       </c>
-      <c r="B21" t="s">
-        <v>57</v>
-      </c>
-      <c r="C21">
-        <v>1</v>
-      </c>
-      <c r="D21" t="s">
-        <v>76</v>
+      <c r="C21" t="s">
+        <v>36</v>
+      </c>
+      <c r="D21">
+        <v>4</v>
       </c>
       <c r="E21" t="s">
-        <v>77</v>
-      </c>
-      <c r="F21">
+        <v>41</v>
+      </c>
+      <c r="F21" t="s">
+        <v>93</v>
+      </c>
+      <c r="G21">
         <v>7</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>21</v>
       </c>
       <c r="B22" t="s">
         <v>78</v>
       </c>
-      <c r="C22">
-        <v>0</v>
-      </c>
-      <c r="D22" t="s">
-        <v>79</v>
-      </c>
-      <c r="F22">
+      <c r="C22" t="s">
+        <v>56</v>
+      </c>
+      <c r="D22">
+        <v>1</v>
+      </c>
+      <c r="E22" t="s">
+        <v>42</v>
+      </c>
+      <c r="G22">
         <v>7</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>22</v>
       </c>
-      <c r="B23" t="s">
-        <v>57</v>
-      </c>
-      <c r="C23">
-        <v>1</v>
-      </c>
-      <c r="D23" t="s">
-        <v>80</v>
+      <c r="C23" t="s">
+        <v>36</v>
+      </c>
+      <c r="D23">
+        <v>4</v>
       </c>
       <c r="E23" t="s">
-        <v>81</v>
-      </c>
-      <c r="F23">
+        <v>43</v>
+      </c>
+      <c r="F23" t="s">
+        <v>94</v>
+      </c>
+      <c r="G23">
         <v>8</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>23</v>
       </c>
       <c r="B24" t="s">
-        <v>82</v>
-      </c>
-      <c r="C24">
-        <v>0</v>
-      </c>
-      <c r="D24" t="s">
-        <v>83</v>
-      </c>
-      <c r="F24">
+        <v>79</v>
+      </c>
+      <c r="C24" t="s">
+        <v>67</v>
+      </c>
+      <c r="D24">
+        <v>1</v>
+      </c>
+      <c r="E24" t="s">
+        <v>44</v>
+      </c>
+      <c r="G24">
         <v>8</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>24</v>
       </c>
-      <c r="B25" t="s">
-        <v>57</v>
-      </c>
-      <c r="C25">
-        <v>1</v>
-      </c>
-      <c r="D25" t="s">
-        <v>84</v>
+      <c r="C25" t="s">
+        <v>36</v>
+      </c>
+      <c r="D25">
+        <v>4</v>
       </c>
       <c r="E25" t="s">
-        <v>85</v>
-      </c>
-      <c r="F25">
+        <v>45</v>
+      </c>
+      <c r="F25" t="s">
+        <v>95</v>
+      </c>
+      <c r="G25">
         <v>8</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>25</v>
       </c>
-      <c r="B26" t="s">
-        <v>57</v>
-      </c>
-      <c r="C26">
-        <v>1</v>
-      </c>
-      <c r="D26" t="s">
-        <v>87</v>
+      <c r="C26" t="s">
+        <v>36</v>
+      </c>
+      <c r="D26">
+        <v>4</v>
       </c>
       <c r="E26" t="s">
-        <v>86</v>
-      </c>
-      <c r="F26">
+        <v>46</v>
+      </c>
+      <c r="F26" t="s">
+        <v>96</v>
+      </c>
+      <c r="G26">
         <v>9</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>26</v>
       </c>
-      <c r="B27" t="s">
-        <v>57</v>
-      </c>
-      <c r="C27">
-        <v>1</v>
-      </c>
-      <c r="D27" t="s">
-        <v>88</v>
+      <c r="C27" t="s">
+        <v>36</v>
+      </c>
+      <c r="D27">
+        <v>4</v>
       </c>
       <c r="E27" t="s">
-        <v>86</v>
-      </c>
-      <c r="F27">
+        <v>47</v>
+      </c>
+      <c r="F27" t="s">
+        <v>96</v>
+      </c>
+      <c r="G27">
         <v>9</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>27</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>89</v>
-      </c>
-      <c r="C28">
-        <v>0</v>
-      </c>
-      <c r="D28" t="s">
-        <v>90</v>
-      </c>
-      <c r="F28">
+        <v>80</v>
+      </c>
+      <c r="C28" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="D28">
+        <v>1</v>
+      </c>
+      <c r="E28" t="s">
+        <v>48</v>
+      </c>
+      <c r="G28">
         <v>9</v>
       </c>
     </row>
